--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3570367.633025578</v>
+        <v>3569641.034154354</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5851605.615330306</v>
+        <v>5851605.615330297</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864456.6793124471</v>
+        <v>864456.6793124467</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5627753.735329222</v>
+        <v>5627753.735329223</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>30.10104989966779</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>334.1393787958239</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -788,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>91.42297362471182</v>
       </c>
       <c r="V3" t="n">
-        <v>38.33883039990948</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.323200368155844</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -828,10 +828,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>106.9706214097034</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
         <v>6.023344779862555</v>
@@ -904,10 +904,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>4.641001266096112</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>8.59442280536039</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>3.171663063227672</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1031,7 +1031,7 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U6" t="n">
-        <v>195.3773027531638</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
         <v>211.5744117368965</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>103.2875137595523</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
         <v>6.023344779862555</v>
@@ -1141,16 +1141,16 @@
         <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>151.7715967819558</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -1195,10 +1195,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>207.7653568653915</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>47.16132237125264</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>153.0251390105127</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -1356,7 +1356,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1390,7 +1390,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975959</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1530,26 +1530,26 @@
         <v>156.323767603766</v>
       </c>
       <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>33.12209635668076</v>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501637</v>
+        <v>54.92104941501638</v>
       </c>
       <c r="S13" t="n">
         <v>155.0289087125509</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C14" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D14" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E14" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F14" t="n">
         <v>387.3211661995113</v>
@@ -1624,10 +1624,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975954</v>
+        <v>55.9893033297596</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275031</v>
       </c>
       <c r="T14" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U14" t="n">
         <v>224.990945096747</v>
@@ -1672,7 +1672,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X14" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y14" t="n">
         <v>367.4283645950528</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F16" t="n">
-        <v>133.4858729041766</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G16" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H16" t="n">
-        <v>118.6124389162599</v>
+        <v>6.095712189383937</v>
       </c>
       <c r="I16" t="n">
-        <v>85.68364371037907</v>
+        <v>85.68364371037913</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501632</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T16" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V16" t="n">
-        <v>55.10228161188427</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>206.4614817925754</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975958</v>
+        <v>55.9893033297596</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U17" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967475</v>
       </c>
       <c r="V17" t="n">
         <v>316.8402373905461</v>
@@ -2004,25 +2004,25 @@
         <v>156.323767603766</v>
       </c>
       <c r="C19" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H19" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>155.0289087125508</v>
+        <v>106.9931090468741</v>
       </c>
       <c r="T19" t="n">
-        <v>15.05939436088551</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U19" t="n">
         <v>250.4712242529991</v>
@@ -2064,13 +2064,13 @@
         <v>241.6479458835353</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C20" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D20" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E20" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F20" t="n">
         <v>387.3211661995113</v>
@@ -2098,10 +2098,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H20" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975952</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T20" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U20" t="n">
-        <v>224.9909450967484</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V20" t="n">
         <v>316.8402373905461</v>
@@ -2146,7 +2146,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X20" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y20" t="n">
         <v>367.4283645950528</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.3237676037659</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>88.04314577169704</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>90.03255081809282</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501629</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T22" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U22" t="n">
-        <v>250.471224252999</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V22" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W22" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X22" t="n">
-        <v>206.4614817925754</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="23">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C23" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D23" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E23" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F23" t="n">
         <v>387.3211661995113</v>
@@ -2335,10 +2335,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H23" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975952</v>
+        <v>55.9893033297596</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T23" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U23" t="n">
-        <v>224.9909450967469</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V23" t="n">
         <v>316.8402373905461</v>
@@ -2383,7 +2383,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X23" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y23" t="n">
         <v>367.4283645950528</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>156.3237676037659</v>
+        <v>86.64727566342194</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>128.400756503981</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G25" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H25" t="n">
-        <v>65.55264754878576</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>85.68364371037904</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501629</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T25" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V25" t="n">
-        <v>241.6479458835352</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X25" t="n">
-        <v>206.4614817925754</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>376.6200261415064</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C26" t="n">
-        <v>376.5244030535244</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D26" t="n">
-        <v>370.9203488815319</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E26" t="n">
-        <v>380.6978716019341</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F26" t="n">
-        <v>387.3211661995111</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G26" t="n">
-        <v>375.142059539758</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H26" t="n">
-        <v>278.300470672221</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I26" t="n">
-        <v>55.98930332975944</v>
+        <v>55.98930332975884</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>104.429322727502</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T26" t="n">
-        <v>190.4854774862716</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U26" t="n">
-        <v>224.9909450967469</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V26" t="n">
-        <v>316.840237390546</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W26" t="n">
-        <v>350.4237561298477</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X26" t="n">
-        <v>367.1380221263988</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y26" t="n">
-        <v>367.4283645950526</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
-        <v>139.8834969875625</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D28" t="n">
-        <v>128.4007565039809</v>
+        <v>47.55422924520933</v>
       </c>
       <c r="E28" t="n">
-        <v>129.8027652540256</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041765</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
-        <v>136.0789454373739</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.25846201203586</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>85.68364371037897</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501621</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>207.6543099067268</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W28" t="n">
-        <v>246.7800261198762</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X28" t="n">
-        <v>206.4614817925753</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y28" t="n">
-        <v>192.9893998987848</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C29" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D29" t="n">
-        <v>370.9203488815319</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E29" t="n">
-        <v>380.6978716019341</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F29" t="n">
-        <v>387.3211661995112</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G29" t="n">
-        <v>375.142059539758</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H29" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332975949</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T29" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U29" t="n">
-        <v>224.9909450967469</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V29" t="n">
-        <v>316.840237390546</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W29" t="n">
-        <v>350.423756129845</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X29" t="n">
-        <v>367.1380221264004</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y29" t="n">
-        <v>367.4283645950527</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>128.400756503981</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>129.8027652540256</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>103.9138977131715</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>136.0789454373739</v>
+        <v>75.60603984991761</v>
       </c>
       <c r="H31" t="n">
-        <v>118.6124389162598</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I31" t="n">
-        <v>85.68364371037902</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V31" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W31" t="n">
-        <v>246.7800261198763</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>206.4614817925754</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y31" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="32">
@@ -3034,22 +3034,22 @@
         <v>376.5244030535245</v>
       </c>
       <c r="D32" t="n">
-        <v>370.9203488815319</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E32" t="n">
-        <v>380.6978716019341</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F32" t="n">
-        <v>387.3211661995112</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G32" t="n">
-        <v>375.142059539758</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H32" t="n">
         <v>278.3004706722211</v>
       </c>
       <c r="I32" t="n">
-        <v>55.98930332975945</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>104.429322727502</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T32" t="n">
-        <v>190.4854774862716</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U32" t="n">
         <v>224.9909450967469</v>
       </c>
       <c r="V32" t="n">
-        <v>316.840237390546</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W32" t="n">
-        <v>350.4237561298463</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X32" t="n">
         <v>367.1380221263989</v>
       </c>
       <c r="Y32" t="n">
-        <v>367.4283645950527</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="33">
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>0.02823849243873269</v>
       </c>
       <c r="E34" t="n">
-        <v>129.8027652540256</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F34" t="n">
-        <v>133.4858729041765</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G34" t="n">
-        <v>136.0789454373739</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H34" t="n">
-        <v>118.6124389162598</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>85.68364371037899</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.92104941501623</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>207.6543099067268</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U34" t="n">
         <v>250.471224252999</v>
       </c>
       <c r="V34" t="n">
-        <v>241.6479458835351</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X34" t="n">
-        <v>206.4614817925753</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y34" t="n">
-        <v>180.580532469446</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>278.3004706722211</v>
       </c>
       <c r="I35" t="n">
-        <v>55.98930332975952</v>
+        <v>55.98930332976064</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3426,19 +3426,19 @@
         <v>156.3237676037659</v>
       </c>
       <c r="C37" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>128.400756503981</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>136.078945437374</v>
+        <v>88.04314577169825</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92104941501629</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T37" t="n">
         <v>207.6543099067269</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V37" t="n">
-        <v>12.61833811864715</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W37" t="n">
         <v>246.7800261198763</v>
@@ -3523,7 +3523,7 @@
         <v>278.3004706722211</v>
       </c>
       <c r="I38" t="n">
-        <v>55.98930332975952</v>
+        <v>55.98930332976064</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X38" t="n">
-        <v>367.1380221264004</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y38" t="n">
         <v>367.4283645950528</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C40" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>128.400756503981</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>114.1510103676891</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>33.12209635668191</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>206.4614817925754</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>406.1189678678444</v>
       </c>
       <c r="C41" t="n">
-        <v>356.8268763394486</v>
+        <v>406.0233447798624</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>400.4192906078699</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>410.1968133282721</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>416.8201079258492</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>404.641001266096</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>119.8051733265752</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609745</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>133.92826445384</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>219.9844192126097</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>346.339179116884</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>379.922697856183</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>396.6369638527369</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>396.9273063213907</v>
       </c>
     </row>
     <row r="42">
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>72.32669175507878</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>82.85798684944231</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388887</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330648</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>279.970165979337</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098731</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>235.9604235189133</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251228</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>406.1189678678444</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>406.0233447798624</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>400.4192906078699</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>410.1968133282721</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>416.8201079258492</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>404.641001266096</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>307.7994123985591</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.4898868230849</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>346.339179116884</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>379.922697856183</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>396.6369638527369</v>
       </c>
       <c r="Y44" t="n">
-        <v>208.933067249405</v>
+        <v>393.8441091488694</v>
       </c>
     </row>
     <row r="45">
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330648</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>271.0770354214537</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098731</v>
       </c>
       <c r="W46" t="n">
-        <v>220.2647746254034</v>
+        <v>276.2789678462142</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>235.9604235189133</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>222.4883416251228</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>563.0439654718655</v>
+        <v>1298.098156350608</v>
       </c>
       <c r="C2" t="n">
-        <v>556.9597788255396</v>
+        <v>1292.013969704282</v>
       </c>
       <c r="D2" t="n">
-        <v>556.5362529590042</v>
+        <v>887.5500397973424</v>
       </c>
       <c r="E2" t="n">
-        <v>546.2364415163049</v>
+        <v>857.144938888587</v>
       </c>
       <c r="F2" t="n">
-        <v>125.2060294699925</v>
+        <v>840.1549308826786</v>
       </c>
       <c r="G2" t="n">
-        <v>120.5181494032287</v>
+        <v>431.4266467755108</v>
       </c>
       <c r="H2" t="n">
-        <v>120.5181494032287</v>
+        <v>120.5181494032288</v>
       </c>
       <c r="I2" t="n">
-        <v>34.16638672030188</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="J2" t="n">
-        <v>34.16638672030188</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="K2" t="n">
-        <v>456.9754223840376</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="L2" t="n">
-        <v>879.7844580477733</v>
+        <v>118.7312222285956</v>
       </c>
       <c r="M2" t="n">
-        <v>879.7844580477733</v>
+        <v>541.5402578923322</v>
       </c>
       <c r="N2" t="n">
-        <v>879.7844580477733</v>
+        <v>964.3492935560687</v>
       </c>
       <c r="O2" t="n">
-        <v>923.7926478665013</v>
+        <v>964.3492935560687</v>
       </c>
       <c r="P2" t="n">
-        <v>1346.601683530237</v>
+        <v>1387.158329219805</v>
       </c>
       <c r="Q2" t="n">
-        <v>1667.762690325529</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="R2" t="n">
-        <v>1708.319336015094</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="S2" t="n">
-        <v>1708.319336015094</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="T2" t="n">
-        <v>1708.319336015094</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="U2" t="n">
-        <v>1708.319336015094</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="V2" t="n">
-        <v>1370.804811978908</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="W2" t="n">
-        <v>1370.804811978908</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="X2" t="n">
-        <v>970.1614141478608</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="Y2" t="n">
-        <v>569.2247410959509</v>
+        <v>1708.319336015097</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>712.9972286068362</v>
+        <v>712.9972286068364</v>
       </c>
       <c r="C3" t="n">
-        <v>579.0021573557819</v>
+        <v>579.0021573557821</v>
       </c>
       <c r="D3" t="n">
-        <v>462.1049995751744</v>
+        <v>462.1049995751745</v>
       </c>
       <c r="E3" t="n">
-        <v>341.6121835675024</v>
+        <v>341.6121835675025</v>
       </c>
       <c r="F3" t="n">
         <v>232.652303750007</v>
       </c>
       <c r="G3" t="n">
-        <v>125.6621910643456</v>
+        <v>125.6621910643457</v>
       </c>
       <c r="H3" t="n">
-        <v>54.9149781000617</v>
+        <v>54.91497810006177</v>
       </c>
       <c r="I3" t="n">
-        <v>34.16638672030188</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="J3" t="n">
-        <v>34.16638672030188</v>
+        <v>226.9792442829352</v>
       </c>
       <c r="K3" t="n">
-        <v>34.16638672030188</v>
+        <v>649.7882799466718</v>
       </c>
       <c r="L3" t="n">
-        <v>439.8922290238866</v>
+        <v>1072.597315610408</v>
       </c>
       <c r="M3" t="n">
-        <v>862.7012646876224</v>
+        <v>1285.510300351361</v>
       </c>
       <c r="N3" t="n">
-        <v>1285.510300351358</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="O3" t="n">
-        <v>1708.319336015094</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.319336015094</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="Q3" t="n">
-        <v>1708.319336015094</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="R3" t="n">
-        <v>1708.319336015094</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="S3" t="n">
-        <v>1600.329326129403</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="T3" t="n">
-        <v>1440.987462316411</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="U3" t="n">
-        <v>1440.987462316411</v>
+        <v>1615.972898010338</v>
       </c>
       <c r="V3" t="n">
-        <v>1402.261371003371</v>
+        <v>1402.261371003372</v>
       </c>
       <c r="W3" t="n">
         <v>1189.0282027397</v>
@@ -4454,7 +4454,7 @@
         <v>1012.702220878593</v>
       </c>
       <c r="Y3" t="n">
-        <v>853.3002612424228</v>
+        <v>853.3002612424231</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>857.5467359312213</v>
+        <v>525.6652189673559</v>
       </c>
       <c r="C4" t="n">
-        <v>686.4533634929378</v>
+        <v>354.5718465290724</v>
       </c>
       <c r="D4" t="n">
-        <v>526.9587188158478</v>
+        <v>195.0772018519825</v>
       </c>
       <c r="E4" t="n">
-        <v>366.0479036841672</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="F4" t="n">
-        <v>201.4167777947585</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="G4" t="n">
-        <v>34.16638672030188</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="H4" t="n">
-        <v>34.16638672030188</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="I4" t="n">
-        <v>34.16638672030188</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="J4" t="n">
-        <v>48.2489361255124</v>
+        <v>48.24893612551246</v>
       </c>
       <c r="K4" t="n">
         <v>202.8012638477504</v>
       </c>
       <c r="L4" t="n">
-        <v>462.6983641278109</v>
+        <v>462.698364127811</v>
       </c>
       <c r="M4" t="n">
-        <v>751.9624205683042</v>
+        <v>751.9624205683043</v>
       </c>
       <c r="N4" t="n">
         <v>1032.801202962554</v>
@@ -4515,25 +4515,25 @@
         <v>1563.565283341152</v>
       </c>
       <c r="S4" t="n">
-        <v>1377.173515221062</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="T4" t="n">
-        <v>1377.173515221062</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="U4" t="n">
-        <v>1377.173515221062</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="V4" t="n">
-        <v>1103.287770160584</v>
+        <v>1455.514150604078</v>
       </c>
       <c r="W4" t="n">
-        <v>1103.287770160584</v>
+        <v>1176.444486112952</v>
       </c>
       <c r="X4" t="n">
-        <v>864.9439080202676</v>
+        <v>938.1006239726356</v>
       </c>
       <c r="Y4" t="n">
-        <v>864.9439080202676</v>
+        <v>713.3649253614003</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>881.5511617534476</v>
+        <v>1689.631969834256</v>
       </c>
       <c r="C5" t="n">
-        <v>875.4669751071217</v>
+        <v>1683.54778318793</v>
       </c>
       <c r="D5" t="n">
-        <v>471.0030452001823</v>
+        <v>1279.08385328099</v>
       </c>
       <c r="E5" t="n">
-        <v>460.703233757483</v>
+        <v>864.743637797887</v>
       </c>
       <c r="F5" t="n">
         <v>443.7132257515746</v>
@@ -4567,10 +4567,10 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>176.0078249962696</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>176.0078249962696</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L5" t="n">
         <v>692.8507596625949</v>
@@ -4579,7 +4579,7 @@
         <v>692.8507596625949</v>
       </c>
       <c r="N5" t="n">
-        <v>1209.69369432892</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O5" t="n">
         <v>1209.69369432892</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1952.973206274203</v>
+        <v>2079.573046323173</v>
       </c>
       <c r="U5" t="n">
-        <v>1695.912714533713</v>
+        <v>2079.573046323173</v>
       </c>
       <c r="V5" t="n">
-        <v>1692.709014469847</v>
+        <v>2079.573046323173</v>
       </c>
       <c r="W5" t="n">
-        <v>1692.709014469847</v>
+        <v>1695.812745458341</v>
       </c>
       <c r="X5" t="n">
-        <v>1692.709014469847</v>
+        <v>1695.812745458341</v>
       </c>
       <c r="Y5" t="n">
-        <v>1291.772341417937</v>
+        <v>1695.812745458341</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4649,25 +4649,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M6" t="n">
-        <v>1014.414276561226</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N6" t="n">
-        <v>1531.257211227551</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O6" t="n">
-        <v>1541.851827451147</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>536.9842286343843</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>365.8908561961008</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>206.3962115190108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>206.3962115190108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1466.833160271106</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1466.833160271106</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V7" t="n">
-        <v>1466.833160271106</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W7" t="n">
-        <v>1187.763495779981</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X7" t="n">
-        <v>949.419633639664</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y7" t="n">
-        <v>724.6839350284287</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>477.5107577130435</v>
+        <v>1117.687900192967</v>
       </c>
       <c r="C8" t="n">
-        <v>471.4265710667177</v>
+        <v>1111.603713546641</v>
       </c>
       <c r="D8" t="n">
-        <v>471.0030452001823</v>
+        <v>1111.180187680106</v>
       </c>
       <c r="E8" t="n">
-        <v>460.703233757483</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F8" t="n">
-        <v>443.7132257515746</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G8" t="n">
-        <v>439.0253456848109</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H8" t="n">
         <v>128.1168483125289</v>
@@ -4807,19 +4807,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="L8" t="n">
         <v>558.6080202959273</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1075.450954962253</v>
       </c>
       <c r="M8" t="n">
         <v>1075.450954962253</v>
       </c>
       <c r="N8" t="n">
-        <v>1075.450954962253</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O8" t="n">
-        <v>1530.854701124212</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P8" t="n">
         <v>2047.697635790537</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>1831.193789739612</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V8" t="n">
-        <v>1481.356235076093</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W8" t="n">
-        <v>1097.595934211262</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="X8" t="n">
-        <v>887.7319373775329</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="Y8" t="n">
-        <v>887.7319373775329</v>
+        <v>1123.868675817053</v>
       </c>
     </row>
     <row r="9">
@@ -4886,25 +4886,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K9" t="n">
-        <v>158.3214934345131</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L9" t="n">
-        <v>158.3214934345131</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M9" t="n">
-        <v>675.1644281008383</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="N9" t="n">
-        <v>1192.007362767164</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="O9" t="n">
-        <v>1192.007362767164</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="P9" t="n">
-        <v>1708.850297433489</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>191.3725408241454</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="C10" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D10" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1251.86179644086</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>969.0636489869844</v>
+        <v>1416.593134765086</v>
       </c>
       <c r="V10" t="n">
-        <v>695.1779039265064</v>
+        <v>1142.707389704608</v>
       </c>
       <c r="W10" t="n">
-        <v>416.1082394353807</v>
+        <v>863.6377252134819</v>
       </c>
       <c r="X10" t="n">
-        <v>416.1082394353807</v>
+        <v>625.2938630731653</v>
       </c>
       <c r="Y10" t="n">
-        <v>191.3725408241454</v>
+        <v>400.5581644619299</v>
       </c>
     </row>
     <row r="11">
@@ -5020,31 +5020,31 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C11" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D11" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E11" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F11" t="n">
-        <v>809.8415093489452</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G11" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H11" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5074,19 +5074,19 @@
         <v>4364.291146941469</v>
       </c>
       <c r="U11" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V11" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W11" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X11" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y11" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="12">
@@ -5123,25 +5123,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>1210.13812587521</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M12" t="n">
-        <v>1210.13812587521</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N12" t="n">
-        <v>1210.13812587521</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O12" t="n">
-        <v>1914.095216421104</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P12" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5178,22 +5178,22 @@
         <v>126.700360677169</v>
       </c>
       <c r="C13" t="n">
-        <v>93.2436976906228</v>
+        <v>126.700360677169</v>
       </c>
       <c r="D13" t="n">
-        <v>93.2436976906228</v>
+        <v>126.700360677169</v>
       </c>
       <c r="E13" t="n">
-        <v>93.2436976906228</v>
+        <v>126.700360677169</v>
       </c>
       <c r="F13" t="n">
-        <v>93.2436976906228</v>
+        <v>126.700360677169</v>
       </c>
       <c r="G13" t="n">
-        <v>93.2436976906228</v>
+        <v>126.700360677169</v>
       </c>
       <c r="H13" t="n">
-        <v>93.2436976906228</v>
+        <v>126.700360677169</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5269,7 +5269,7 @@
         <v>809.841509348945</v>
       </c>
       <c r="G14" t="n">
-        <v>430.9101360764621</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H14" t="n">
         <v>149.7985495388648</v>
@@ -5278,10 +5278,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5305,7 +5305,7 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T14" t="n">
         <v>4364.291146941468</v>
@@ -5323,7 +5323,7 @@
         <v>3092.17704518032</v>
       </c>
       <c r="Y14" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>93.2436976906228</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="M15" t="n">
-        <v>93.2436976906228</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N15" t="n">
-        <v>966.9017898022406</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O15" t="n">
-        <v>1670.858880348135</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
         <v>2139.732893541123</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>973.9991721489653</v>
+        <v>589.351717382885</v>
       </c>
       <c r="C16" t="n">
-        <v>832.7027105453666</v>
+        <v>589.351717382885</v>
       </c>
       <c r="D16" t="n">
-        <v>703.0049767029615</v>
+        <v>589.351717382885</v>
       </c>
       <c r="E16" t="n">
-        <v>571.8910724059658</v>
+        <v>458.2378130858893</v>
       </c>
       <c r="F16" t="n">
-        <v>437.056857351242</v>
+        <v>323.4035980311654</v>
       </c>
       <c r="G16" t="n">
-        <v>299.6033771114703</v>
+        <v>185.9501177913936</v>
       </c>
       <c r="H16" t="n">
         <v>179.7928327516118</v>
@@ -5436,22 +5436,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K16" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L16" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M16" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N16" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O16" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P16" t="n">
         <v>1761.542230672484</v>
@@ -5460,28 +5460,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R16" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S16" t="n">
-        <v>1800.798405294154</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T16" t="n">
-        <v>1591.046577105541</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U16" t="n">
-        <v>1591.046577105541</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="V16" t="n">
-        <v>1535.387706790507</v>
+        <v>992.8374564650672</v>
       </c>
       <c r="W16" t="n">
-        <v>1535.387706790507</v>
+        <v>992.8374564650672</v>
       </c>
       <c r="X16" t="n">
-        <v>1326.840755484875</v>
+        <v>784.2905051594355</v>
       </c>
       <c r="Y16" t="n">
-        <v>1131.901967708325</v>
+        <v>589.351717382885</v>
       </c>
     </row>
     <row r="17">
@@ -5500,13 +5500,13 @@
         <v>1585.618315208991</v>
       </c>
       <c r="E17" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F17" t="n">
-        <v>809.8415093489446</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G17" t="n">
-        <v>430.9101360764621</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H17" t="n">
         <v>149.7985495388648</v>
@@ -5515,10 +5515,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5530,7 +5530,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P17" t="n">
         <v>4300.467232046283</v>
@@ -5548,19 +5548,19 @@
         <v>4364.291146941469</v>
       </c>
       <c r="U17" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V17" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W17" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X17" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y17" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>2808.508546243273</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>2808.508546243273</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L18" t="n">
-        <v>2808.508546243273</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M18" t="n">
-        <v>2808.508546243273</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N18" t="n">
-        <v>3682.166638354891</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O18" t="n">
-        <v>4070.91947267998</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P18" t="n">
-        <v>4632.62536516851</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>4632.62536516851</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>973.9991721489654</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="C19" t="n">
-        <v>832.7027105453667</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="D19" t="n">
-        <v>703.0049767029616</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="E19" t="n">
-        <v>571.8910724059659</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="F19" t="n">
-        <v>437.0568573512421</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="G19" t="n">
-        <v>299.6033771114703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5679,7 +5679,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L19" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M19" t="n">
         <v>927.8555407749236</v>
@@ -5697,28 +5697,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R19" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S19" t="n">
-        <v>1644.203548008749</v>
+        <v>1748.200365261975</v>
       </c>
       <c r="T19" t="n">
-        <v>1628.992038553309</v>
+        <v>1538.448537073362</v>
       </c>
       <c r="U19" t="n">
-        <v>1375.990801934118</v>
+        <v>1285.447300454171</v>
       </c>
       <c r="V19" t="n">
-        <v>1131.901967708325</v>
+        <v>1041.358466228377</v>
       </c>
       <c r="W19" t="n">
-        <v>1131.901967708325</v>
+        <v>792.0857125719365</v>
       </c>
       <c r="X19" t="n">
-        <v>1131.901967708325</v>
+        <v>583.5387612663046</v>
       </c>
       <c r="Y19" t="n">
-        <v>1131.901967708325</v>
+        <v>388.5999734897541</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C20" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D20" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E20" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F20" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G20" t="n">
-        <v>430.9101360764619</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H20" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5785,19 +5785,19 @@
         <v>4364.291146941469</v>
       </c>
       <c r="U20" t="n">
-        <v>4137.027566035663</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V20" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W20" t="n">
-        <v>3463.023532176682</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X20" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y20" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="21">
@@ -5834,16 +5834,16 @@
         <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>286.056555253256</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M21" t="n">
-        <v>1129.033635947823</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N21" t="n">
-        <v>2002.69172805944</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>321.6391484537206</v>
+        <v>182.1761681670845</v>
       </c>
       <c r="C22" t="n">
-        <v>321.6391484537206</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>321.6391484537206</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>321.6391484537206</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>321.6391484537206</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>184.1856682139489</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
         <v>93.2436976906228</v>
@@ -5910,22 +5910,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K22" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L22" t="n">
-        <v>609.3875320253559</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M22" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N22" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O22" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P22" t="n">
         <v>1761.542230672484</v>
@@ -5934,28 +5934,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R22" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S22" t="n">
-        <v>1644.20354800875</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T22" t="n">
-        <v>1434.451719820137</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U22" t="n">
-        <v>1181.450483200946</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="V22" t="n">
-        <v>937.3616489751525</v>
+        <v>992.8374564650672</v>
       </c>
       <c r="W22" t="n">
-        <v>688.0888953187118</v>
+        <v>743.5647028086264</v>
       </c>
       <c r="X22" t="n">
-        <v>479.5419440130801</v>
+        <v>535.0177515029945</v>
       </c>
       <c r="Y22" t="n">
-        <v>479.5419440130801</v>
+        <v>340.078963726444</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2340.613014133292</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C23" t="n">
-        <v>1960.285334281247</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D23" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E23" t="n">
-        <v>1201.075010560574</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489461</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G23" t="n">
-        <v>430.9101360764625</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H23" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6004,7 +6004,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O23" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P23" t="n">
         <v>4300.467232046283</v>
@@ -6025,13 +6025,13 @@
         <v>4137.027566035665</v>
       </c>
       <c r="V23" t="n">
-        <v>3816.986922206831</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W23" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X23" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y23" t="n">
         <v>2721.037282963096</v>
@@ -6068,22 +6068,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P24" t="n">
         <v>2139.732893541123</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>785.5692082382068</v>
+        <v>496.6452972821142</v>
       </c>
       <c r="C25" t="n">
-        <v>644.2727466346082</v>
+        <v>496.6452972821142</v>
       </c>
       <c r="D25" t="n">
-        <v>514.5750127922031</v>
+        <v>496.6452972821142</v>
       </c>
       <c r="E25" t="n">
-        <v>383.4611084952074</v>
+        <v>365.5313929851185</v>
       </c>
       <c r="F25" t="n">
-        <v>383.4611084952074</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="G25" t="n">
-        <v>246.0076282554357</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>179.7928327516117</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K25" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L25" t="n">
-        <v>609.3875320253559</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M25" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N25" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O25" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P25" t="n">
         <v>1761.542230672484</v>
@@ -6171,28 +6171,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R25" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S25" t="n">
-        <v>1800.798405294154</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T25" t="n">
-        <v>1591.046577105541</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U25" t="n">
-        <v>1591.046577105541</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="V25" t="n">
-        <v>1346.957742879748</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="W25" t="n">
-        <v>1346.957742879748</v>
+        <v>987.6535370344196</v>
       </c>
       <c r="X25" t="n">
-        <v>1138.410791574117</v>
+        <v>779.1065857287879</v>
       </c>
       <c r="Y25" t="n">
-        <v>943.4720037975663</v>
+        <v>584.1677979522374</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C26" t="n">
         <v>1960.285334281245</v>
       </c>
       <c r="D26" t="n">
-        <v>1585.61831520899</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E26" t="n">
         <v>1201.075010560572</v>
       </c>
       <c r="F26" t="n">
-        <v>809.8415093489444</v>
+        <v>809.8415093489443</v>
       </c>
       <c r="G26" t="n">
-        <v>430.9101360764616</v>
+        <v>430.9101360764613</v>
       </c>
       <c r="H26" t="n">
-        <v>149.7985495388646</v>
+        <v>149.7985495388641</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6262,16 +6262,16 @@
         <v>4137.027566035665</v>
       </c>
       <c r="V26" t="n">
-        <v>3816.986922206831</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W26" t="n">
-        <v>3463.023532176681</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X26" t="n">
-        <v>3092.177045180319</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y26" t="n">
-        <v>2721.037282963094</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M27" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N27" t="n">
-        <v>1627.989961721529</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>938.2880843669202</v>
+        <v>548.5228536411021</v>
       </c>
       <c r="C28" t="n">
-        <v>796.9916227633216</v>
+        <v>407.2263920375034</v>
       </c>
       <c r="D28" t="n">
-        <v>667.2938889209166</v>
+        <v>359.1918170423424</v>
       </c>
       <c r="E28" t="n">
-        <v>536.1799846239211</v>
+        <v>228.0779127453467</v>
       </c>
       <c r="F28" t="n">
-        <v>401.3457695691973</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>263.8922893294257</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>179.7928327516117</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>136.5301994049081</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K28" t="n">
-        <v>320.2864794362208</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L28" t="n">
-        <v>609.3875320253562</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M28" t="n">
-        <v>927.8555407749243</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N28" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O28" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P28" t="n">
-        <v>1761.542230672486</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q28" t="n">
-        <v>1856.274212784071</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R28" t="n">
-        <v>1800.798405294156</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S28" t="n">
-        <v>1800.798405294156</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T28" t="n">
-        <v>1591.046577105543</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="U28" t="n">
-        <v>1591.046577105543</v>
+        <v>1603.272976164878</v>
       </c>
       <c r="V28" t="n">
-        <v>1591.046577105543</v>
+        <v>1359.184141939085</v>
       </c>
       <c r="W28" t="n">
-        <v>1341.773823449102</v>
+        <v>1109.911388282644</v>
       </c>
       <c r="X28" t="n">
-        <v>1133.22687214347</v>
+        <v>901.3644369770122</v>
       </c>
       <c r="Y28" t="n">
-        <v>938.2880843669202</v>
+        <v>706.4256492004617</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C29" t="n">
         <v>1960.285334281245</v>
       </c>
       <c r="D29" t="n">
-        <v>1585.61831520899</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E29" t="n">
         <v>1201.075010560572</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489446</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G29" t="n">
-        <v>430.9101360764618</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H29" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6478,7 +6478,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P29" t="n">
         <v>4300.467232046283</v>
@@ -6493,16 +6493,16 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T29" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U29" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W29" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X29" t="n">
         <v>3092.17704518032</v>
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>562.1177108836107</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.8320285342498</v>
+        <v>375.9731143336094</v>
       </c>
       <c r="C31" t="n">
-        <v>802.8320285342498</v>
+        <v>375.9731143336094</v>
       </c>
       <c r="D31" t="n">
-        <v>673.1342946918448</v>
+        <v>375.9731143336094</v>
       </c>
       <c r="E31" t="n">
-        <v>542.0203903948493</v>
+        <v>375.9731143336094</v>
       </c>
       <c r="F31" t="n">
-        <v>437.0568573512418</v>
+        <v>375.9731143336094</v>
       </c>
       <c r="G31" t="n">
-        <v>299.6033771114701</v>
+        <v>299.6033771114704</v>
       </c>
       <c r="H31" t="n">
-        <v>179.7928327516117</v>
+        <v>179.7928327516119</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K31" t="n">
-        <v>320.2864794362207</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L31" t="n">
-        <v>609.387532025356</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M31" t="n">
-        <v>927.8555407749241</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N31" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O31" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P31" t="n">
-        <v>1761.542230672485</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q31" t="n">
         <v>1856.27421278407</v>
       </c>
       <c r="R31" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S31" t="n">
-        <v>1699.679355498666</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T31" t="n">
-        <v>1699.679355498666</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U31" t="n">
-        <v>1699.679355498666</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V31" t="n">
-        <v>1455.590521272873</v>
+        <v>937.3616489751514</v>
       </c>
       <c r="W31" t="n">
-        <v>1206.317767616432</v>
+        <v>937.3616489751514</v>
       </c>
       <c r="X31" t="n">
-        <v>997.7708163108002</v>
+        <v>728.8146976695195</v>
       </c>
       <c r="Y31" t="n">
-        <v>802.8320285342498</v>
+        <v>533.875909892969</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C32" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D32" t="n">
-        <v>1585.61831520899</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E32" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F32" t="n">
-        <v>809.8415093489446</v>
+        <v>809.8415093489457</v>
       </c>
       <c r="G32" t="n">
-        <v>430.9101360764618</v>
+        <v>430.9101360764625</v>
       </c>
       <c r="H32" t="n">
         <v>149.7985495388647</v>
@@ -6700,10 +6700,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6715,7 +6715,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P32" t="n">
         <v>4300.467232046283</v>
@@ -6733,19 +6733,19 @@
         <v>4364.291146941469</v>
       </c>
       <c r="U32" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V32" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W32" t="n">
-        <v>3463.023532176682</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X32" t="n">
         <v>3092.17704518032</v>
       </c>
       <c r="Y32" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M33" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N33" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>703.0049767029609</v>
+        <v>496.6738210118501</v>
       </c>
       <c r="C34" t="n">
-        <v>703.0049767029609</v>
+        <v>496.6738210118501</v>
       </c>
       <c r="D34" t="n">
-        <v>703.0049767029609</v>
+        <v>496.645297282114</v>
       </c>
       <c r="E34" t="n">
-        <v>571.8910724059654</v>
+        <v>365.5313929851184</v>
       </c>
       <c r="F34" t="n">
-        <v>437.0568573512417</v>
+        <v>230.6971779303945</v>
       </c>
       <c r="G34" t="n">
-        <v>299.6033771114701</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>179.7928327516117</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6861,13 +6861,13 @@
         <v>136.530199404908</v>
       </c>
       <c r="K34" t="n">
-        <v>320.2864794362208</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L34" t="n">
-        <v>609.387532025356</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M34" t="n">
-        <v>927.8555407749241</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N34" t="n">
         <v>1237.898275478249</v>
@@ -6876,34 +6876,34 @@
         <v>1526.662838113798</v>
       </c>
       <c r="P34" t="n">
-        <v>1761.542230672485</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q34" t="n">
-        <v>1856.274212784071</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R34" t="n">
-        <v>1800.798405294155</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S34" t="n">
-        <v>1800.798405294155</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T34" t="n">
-        <v>1591.046577105542</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U34" t="n">
-        <v>1338.045340486351</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V34" t="n">
-        <v>1093.956506260558</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W34" t="n">
-        <v>1093.956506260558</v>
+        <v>900.1595600940323</v>
       </c>
       <c r="X34" t="n">
-        <v>885.4095549549265</v>
+        <v>691.6126087884005</v>
       </c>
       <c r="Y34" t="n">
-        <v>703.0049767029609</v>
+        <v>496.6738210118501</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2340.613014133292</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C35" t="n">
-        <v>1960.285334281247</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D35" t="n">
         <v>1585.618315208992</v>
       </c>
       <c r="E35" t="n">
-        <v>1201.075010560574</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F35" t="n">
-        <v>809.8415093489461</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G35" t="n">
-        <v>430.9101360764625</v>
+        <v>430.910136076463</v>
       </c>
       <c r="H35" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388659</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6952,7 +6952,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O35" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P35" t="n">
         <v>4300.467232046283</v>
@@ -6973,7 +6973,7 @@
         <v>4137.027566035665</v>
       </c>
       <c r="V35" t="n">
-        <v>3816.986922206831</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W35" t="n">
         <v>3463.023532176684</v>
@@ -7016,25 +7016,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>549.0499539559215</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L36" t="n">
-        <v>1210.13812587521</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.13812587521</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N36" t="n">
-        <v>2083.796217986828</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>767.6394927281177</v>
+        <v>182.1761681670857</v>
       </c>
       <c r="C37" t="n">
-        <v>626.3430311245191</v>
+        <v>182.1761681670857</v>
       </c>
       <c r="D37" t="n">
-        <v>496.645297282114</v>
+        <v>182.1761681670857</v>
       </c>
       <c r="E37" t="n">
-        <v>365.5313929851184</v>
+        <v>182.1761681670857</v>
       </c>
       <c r="F37" t="n">
-        <v>230.6971779303945</v>
+        <v>182.1761681670857</v>
       </c>
       <c r="G37" t="n">
         <v>93.2436976906228</v>
@@ -7119,28 +7119,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R37" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S37" t="n">
-        <v>1800.798405294154</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T37" t="n">
-        <v>1591.046577105541</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U37" t="n">
-        <v>1591.046577105541</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V37" t="n">
-        <v>1578.3007810261</v>
+        <v>992.837456465068</v>
       </c>
       <c r="W37" t="n">
-        <v>1329.028027369659</v>
+        <v>743.5647028086273</v>
       </c>
       <c r="X37" t="n">
-        <v>1120.481076064028</v>
+        <v>535.0177515029956</v>
       </c>
       <c r="Y37" t="n">
-        <v>925.5422882874773</v>
+        <v>340.0789637264452</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C38" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D38" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E38" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F38" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G38" t="n">
-        <v>430.9101360764619</v>
+        <v>430.910136076463</v>
       </c>
       <c r="H38" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388659</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7216,10 +7216,10 @@
         <v>3463.023532176684</v>
       </c>
       <c r="X38" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y38" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>1210.13812587521</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M39" t="n">
-        <v>2053.115206569777</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N39" t="n">
-        <v>2053.115206569777</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>479.5419440130801</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="C40" t="n">
-        <v>338.2454824094815</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="D40" t="n">
-        <v>208.5477485670764</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="E40" t="n">
-        <v>208.5477485670764</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="F40" t="n">
-        <v>208.5477485670764</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="G40" t="n">
-        <v>208.5477485670764</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7377,7 +7377,7 @@
         <v>479.5419440130801</v>
       </c>
       <c r="Y40" t="n">
-        <v>479.5419440130801</v>
+        <v>284.6031562365297</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2102.237727455811</v>
+        <v>2359.298219196302</v>
       </c>
       <c r="C41" t="n">
-        <v>1741.806539234146</v>
+        <v>1949.173628509573</v>
       </c>
       <c r="D41" t="n">
-        <v>1337.342609327206</v>
+        <v>1544.709698602633</v>
       </c>
       <c r="E41" t="n">
-        <v>923.0023938441032</v>
+        <v>1130.36948311953</v>
       </c>
       <c r="F41" t="n">
-        <v>501.9719817977906</v>
+        <v>709.3390710732175</v>
       </c>
       <c r="G41" t="n">
-        <v>93.2436976906228</v>
+        <v>300.6107869660498</v>
       </c>
       <c r="H41" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735495</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7444,19 +7444,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3571.099469743749</v>
       </c>
       <c r="X41" t="n">
-        <v>2913.395580172211</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y41" t="n">
-        <v>2512.458907120301</v>
+        <v>2769.519398860792</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>2615.69568868064</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L42" t="n">
-        <v>3276.783860599928</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M42" t="n">
-        <v>4119.760941294495</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N42" t="n">
-        <v>4632.62536516851</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O42" t="n">
-        <v>4632.62536516851</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="P42" t="n">
-        <v>4632.62536516851</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>4632.62536516851</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>749.3736558270855</v>
+        <v>176.9386339021807</v>
       </c>
       <c r="C43" t="n">
-        <v>578.280283388802</v>
+        <v>176.9386339021807</v>
       </c>
       <c r="D43" t="n">
-        <v>418.7856387117121</v>
+        <v>176.9386339021807</v>
       </c>
       <c r="E43" t="n">
-        <v>257.8748235800315</v>
+        <v>176.9386339021807</v>
       </c>
       <c r="F43" t="n">
-        <v>93.2436976906228</v>
+        <v>176.9386339021807</v>
       </c>
       <c r="G43" t="n">
-        <v>93.2436976906228</v>
+        <v>176.9386339021807</v>
       </c>
       <c r="H43" t="n">
-        <v>93.2436976906228</v>
+        <v>176.9386339021807</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>107.3262470958333</v>
+        <v>107.3262470958334</v>
       </c>
       <c r="K43" t="n">
-        <v>261.8785748180713</v>
+        <v>261.8785748180715</v>
       </c>
       <c r="L43" t="n">
-        <v>521.7756750981318</v>
+        <v>521.7756750981322</v>
       </c>
       <c r="M43" t="n">
-        <v>811.0397315386251</v>
+        <v>811.0397315386256</v>
       </c>
       <c r="N43" t="n">
-        <v>1091.878513932875</v>
+        <v>1091.878513932876</v>
       </c>
       <c r="O43" t="n">
         <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>1557.114564508962</v>
+        <v>1557.114564508963</v>
       </c>
       <c r="Q43" t="n">
         <v>1622.642594311473</v>
@@ -7596,25 +7596,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191384</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168086</v>
       </c>
       <c r="U43" t="n">
-        <v>1339.844446857597</v>
+        <v>913.9039397142103</v>
       </c>
       <c r="V43" t="n">
-        <v>1339.844446857597</v>
+        <v>640.0181946537324</v>
       </c>
       <c r="W43" t="n">
-        <v>1060.774782366472</v>
+        <v>640.0181946537324</v>
       </c>
       <c r="X43" t="n">
-        <v>822.430920226155</v>
+        <v>401.6743325134159</v>
       </c>
       <c r="Y43" t="n">
-        <v>822.430920226155</v>
+        <v>176.9386339021807</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293157</v>
       </c>
       <c r="C44" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606427</v>
       </c>
       <c r="D44" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700725</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629047</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U44" t="n">
-        <v>4304.697325272099</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V44" t="n">
-        <v>3954.85977060858</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W44" t="n">
-        <v>3571.099469743748</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X44" t="n">
-        <v>3170.456071912701</v>
+        <v>3270.883139431252</v>
       </c>
       <c r="Y44" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957646</v>
       </c>
     </row>
     <row r="45">
@@ -7733,22 +7733,22 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>741.8628115185547</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M45" t="n">
-        <v>741.8628115185547</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N45" t="n">
-        <v>1406.216283632599</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O45" t="n">
-        <v>2110.173374178493</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P45" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>749.3736558270855</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>578.280283388802</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>418.7856387117121</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
         <v>93.2436976906228</v>
@@ -7806,25 +7806,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>107.3262470958333</v>
+        <v>107.3262470958334</v>
       </c>
       <c r="K46" t="n">
-        <v>261.8785748180713</v>
+        <v>261.8785748180715</v>
       </c>
       <c r="L46" t="n">
-        <v>521.7756750981318</v>
+        <v>521.7756750981322</v>
       </c>
       <c r="M46" t="n">
-        <v>811.0397315386251</v>
+        <v>811.0397315386256</v>
       </c>
       <c r="N46" t="n">
-        <v>1091.878513932875</v>
+        <v>1091.878513932876</v>
       </c>
       <c r="O46" t="n">
         <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1557.114564508962</v>
+        <v>1557.114564508963</v>
       </c>
       <c r="Q46" t="n">
         <v>1622.642594311473</v>
@@ -7836,22 +7836,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288176</v>
       </c>
       <c r="U46" t="n">
-        <v>1622.642594311473</v>
+        <v>1109.278667993778</v>
       </c>
       <c r="V46" t="n">
-        <v>1622.642594311473</v>
+        <v>835.3929229333</v>
       </c>
       <c r="W46" t="n">
-        <v>1400.152922972682</v>
+        <v>556.3232584421745</v>
       </c>
       <c r="X46" t="n">
-        <v>1161.809060832365</v>
+        <v>317.979396301858</v>
       </c>
       <c r="Y46" t="n">
-        <v>937.0733622211299</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>516.2162236769906</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>522.5652320666184</v>
+        <v>180.9044238287981</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>520.3700584608198</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>519.9921247603936</v>
       </c>
       <c r="O2" t="n">
-        <v>137.6424926143972</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>520.7291972846576</v>
+        <v>520.7291972846584</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,22 +8057,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>482.9056167883897</v>
       </c>
       <c r="L3" t="n">
-        <v>465.9386069457831</v>
+        <v>483.1943578146233</v>
       </c>
       <c r="M3" t="n">
-        <v>484.6441177421909</v>
+        <v>272.6279046888744</v>
       </c>
       <c r="N3" t="n">
-        <v>480.2732273975235</v>
+        <v>480.2732273975243</v>
       </c>
       <c r="O3" t="n">
-        <v>484.8313130037735</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
@@ -8215,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>208.9223179663055</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>231.0841246958424</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
         <v>615.7129336509097</v>
@@ -8297,28 +8297,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>68.45311154908681</v>
+        <v>558.7215717793176</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,22 +8455,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
         <v>553.1935596277625</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
@@ -8534,10 +8534,10 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>173.5595280421012</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
         <v>579.627854108443</v>
@@ -8549,13 +8549,13 @@
         <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>97.25235142021847</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8707,7 +8707,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q11" t="n">
         <v>414.4388617681339</v>
@@ -8771,28 +8771,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>536.2013208684158</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>252.3183802122873</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8950,7 +8950,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>585.6215843269604</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
@@ -9020,10 +9020,10 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>527.8697493391553</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9172,7 +9172,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M17" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N17" t="n">
         <v>853.701196452193</v>
@@ -9242,22 +9242,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>424.7983178153489</v>
       </c>
       <c r="O18" t="n">
-        <v>450.4311096314033</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>621.6393243851574</v>
@@ -9266,7 +9266,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,19 +9482,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>86.34977678504856</v>
       </c>
       <c r="O21" t="n">
-        <v>196.176898678467</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9716,25 +9716,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>186.7359176241983</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>514.5673383305425</v>
       </c>
       <c r="O27" t="n">
-        <v>574.6635313430244</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>529.7246381472005</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10664,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>341.4408586839378</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>114.253171479086</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10901,28 +10901,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>145.24409210237</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11083,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,25 +11141,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>571.2382659937654</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
         <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>610.0079012849245</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11381,25 +11381,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>724.2575066402588</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>106.7614006308819</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D13" t="n">
         <v>128.4007565039811</v>
@@ -23436,7 +23436,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I13" t="n">
-        <v>85.68364371037913</v>
+        <v>52.56154735369837</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>112.516726726876</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.92104941501638</v>
       </c>
       <c r="S16" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>186.545664271651</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>85.68364371037913</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>54.92104941501638</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>48.03579966567673</v>
       </c>
       <c r="T19" t="n">
-        <v>192.5949155458414</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875626</v>
+        <v>51.84035121586565</v>
       </c>
       <c r="D22" t="n">
-        <v>128.400756503981</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E22" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F22" t="n">
-        <v>133.4858729041766</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H22" t="n">
-        <v>28.57988809816705</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I22" t="n">
-        <v>85.68364371037904</v>
+        <v>85.68364371037913</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>54.92104941501638</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>69.67649194034405</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>53.05979136747411</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.68364371037913</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>54.92104941501638</v>
       </c>
       <c r="S25" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>250.471224252999</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W25" t="n">
-        <v>246.7800261198763</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>156.3237676037658</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>80.84652725877181</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H28" t="n">
-        <v>35.35397690422391</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S28" t="n">
-        <v>155.0289087125507</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U28" t="n">
-        <v>250.471224252999</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>241.6479458835351</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>139.8834969875626</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F31" t="n">
-        <v>29.57197519100512</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>60.47290558745647</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501626</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>207.6543099067268</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>250.471224252999</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.3237676037658</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C34" t="n">
-        <v>139.8834969875625</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D34" t="n">
-        <v>128.4007565039809</v>
+        <v>128.3725180115423</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S34" t="n">
-        <v>155.0289087125507</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>246.7800261198762</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>12.40886742933884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>48.03579966567571</v>
       </c>
       <c r="H37" t="n">
         <v>118.6124389162599</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S37" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>250.471224252999</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>229.0296077648881</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E40" t="n">
         <v>129.8027652540257</v>
@@ -25566,10 +25566,10 @@
         <v>136.078945437374</v>
       </c>
       <c r="H40" t="n">
-        <v>4.461428548570794</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I40" t="n">
-        <v>85.68364371037904</v>
+        <v>52.56154735369714</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>49.19646844041398</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>187.9942390719839</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.4898868230849</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>113.4960175750252</v>
+        <v>185.8227093301038</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139005</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.899698230319</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803636</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305145</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>165.5778871637119</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>148.1113806425978</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>32.32459858727468</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>84.41999114135423</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462142</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609745</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.92826445384</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126097</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>187.9942390719858</v>
+        <v>3.083197172521295</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301038</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139005</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.899698230319</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803636</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305145</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>165.5778871637119</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>148.1113806425978</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>115.182585436717</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>84.41999114135423</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>184.5278504388887</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>8.893130557883296</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>56.01419322081091</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>488275.5600838626</v>
+        <v>488275.5600838627</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>488275.5600838625</v>
+        <v>488275.5600838626</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>488275.5600838626</v>
+        <v>488275.5600838625</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>488275.5600838626</v>
+        <v>488275.5600838625</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>488275.5600838625</v>
+        <v>488275.5600838626</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>488275.5600838626</v>
+        <v>488275.5600838627</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>449200.2471095598</v>
+        <v>449200.2471095599</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>449200.2471095598</v>
+        <v>449200.24710956</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>651529.5721298282</v>
+        <v>651529.5721298277</v>
       </c>
       <c r="C2" t="n">
         <v>651529.5721298282</v>
       </c>
       <c r="D2" t="n">
-        <v>651529.5721298282</v>
+        <v>651529.572129828</v>
       </c>
       <c r="E2" t="n">
-        <v>631397.7523692572</v>
+        <v>631397.7523692576</v>
       </c>
       <c r="F2" t="n">
+        <v>631397.7523692575</v>
+      </c>
+      <c r="G2" t="n">
+        <v>631397.7523692575</v>
+      </c>
+      <c r="H2" t="n">
+        <v>631397.7523692574</v>
+      </c>
+      <c r="I2" t="n">
+        <v>631397.7523692574</v>
+      </c>
+      <c r="J2" t="n">
         <v>631397.7523692573</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>631397.7523692576</v>
+      </c>
+      <c r="L2" t="n">
         <v>631397.7523692573</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
+        <v>631397.7523692573</v>
+      </c>
+      <c r="N2" t="n">
         <v>631397.7523692575</v>
-      </c>
-      <c r="I2" t="n">
-        <v>631397.7523692572</v>
-      </c>
-      <c r="J2" t="n">
-        <v>631397.7523692576</v>
-      </c>
-      <c r="K2" t="n">
-        <v>631397.7523692573</v>
-      </c>
-      <c r="L2" t="n">
-        <v>631397.7523692575</v>
-      </c>
-      <c r="M2" t="n">
-        <v>631397.7523692574</v>
-      </c>
-      <c r="N2" t="n">
-        <v>631397.7523692573</v>
       </c>
       <c r="O2" t="n">
         <v>579297.3350701876</v>
       </c>
       <c r="P2" t="n">
-        <v>579297.3350701878</v>
+        <v>579297.3350701873</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143124.2752108466</v>
+        <v>143124.2752108469</v>
       </c>
       <c r="C3" t="n">
-        <v>30686.4608666882</v>
+        <v>30686.46086668795</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>135342.0294691538</v>
+        <v>135342.0294691539</v>
       </c>
       <c r="K3" t="n">
-        <v>24445.77426110956</v>
+        <v>24445.77426110936</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-11</v>
       </c>
       <c r="M3" t="n">
         <v>160358.4505006827</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189227.1473519039</v>
+        <v>189227.1473519038</v>
       </c>
       <c r="C4" t="n">
         <v>164775.2337200961</v>
@@ -26426,40 +26426,40 @@
         <v>164775.2337200961</v>
       </c>
       <c r="E4" t="n">
+        <v>45275.40315393286</v>
+      </c>
+      <c r="F4" t="n">
+        <v>45275.40315393286</v>
+      </c>
+      <c r="G4" t="n">
         <v>45275.40315393287</v>
       </c>
-      <c r="F4" t="n">
-        <v>45275.40315393293</v>
-      </c>
-      <c r="G4" t="n">
-        <v>45275.4031539329</v>
-      </c>
       <c r="H4" t="n">
-        <v>45275.40315393297</v>
+        <v>45275.40315393287</v>
       </c>
       <c r="I4" t="n">
+        <v>45275.40315393286</v>
+      </c>
+      <c r="J4" t="n">
+        <v>45275.40315393284</v>
+      </c>
+      <c r="K4" t="n">
+        <v>45275.40315393283</v>
+      </c>
+      <c r="L4" t="n">
         <v>45275.40315393296</v>
-      </c>
-      <c r="J4" t="n">
-        <v>45275.40315393303</v>
-      </c>
-      <c r="K4" t="n">
-        <v>45275.40315393299</v>
-      </c>
-      <c r="L4" t="n">
-        <v>45275.40315393303</v>
       </c>
       <c r="M4" t="n">
         <v>45275.40315393296</v>
       </c>
       <c r="N4" t="n">
-        <v>45275.40315393297</v>
+        <v>45275.40315393296</v>
       </c>
       <c r="O4" t="n">
-        <v>15465.37373706398</v>
+        <v>15465.3737370641</v>
       </c>
       <c r="P4" t="n">
-        <v>15465.37373706398</v>
+        <v>15465.3737370641</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59594.05390742942</v>
+        <v>59594.05390742948</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26481,22 +26481,22 @@
         <v>73345.15677686482</v>
       </c>
       <c r="F5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="G5" t="n">
         <v>73345.15677686482</v>
       </c>
       <c r="H5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="I5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="J5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="K5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="L5" t="n">
         <v>73345.15677686484</v>
@@ -26508,10 +26508,10 @@
         <v>73345.15677686484</v>
       </c>
       <c r="O5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487333</v>
       </c>
       <c r="P5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487333</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>259584.0956596482</v>
+        <v>259584.0956596476</v>
       </c>
       <c r="C6" t="n">
-        <v>390698.8124645464</v>
+        <v>390698.8124645466</v>
       </c>
       <c r="D6" t="n">
-        <v>421385.2733312345</v>
+        <v>421385.2733312344</v>
       </c>
       <c r="E6" t="n">
-        <v>297048.2761579459</v>
+        <v>296997.9466085449</v>
       </c>
       <c r="F6" t="n">
-        <v>512777.1924384595</v>
+        <v>512726.8628890584</v>
       </c>
       <c r="G6" t="n">
-        <v>512777.1924384596</v>
+        <v>512726.8628890584</v>
       </c>
       <c r="H6" t="n">
-        <v>512777.1924384597</v>
+        <v>512726.8628890582</v>
       </c>
       <c r="I6" t="n">
-        <v>512777.1924384594</v>
+        <v>512726.8628890582</v>
       </c>
       <c r="J6" t="n">
-        <v>377435.1629693061</v>
+        <v>377384.8334199043</v>
       </c>
       <c r="K6" t="n">
-        <v>488331.4181773499</v>
+        <v>488281.0886279492</v>
       </c>
       <c r="L6" t="n">
-        <v>512777.1924384597</v>
+        <v>512726.8628890579</v>
       </c>
       <c r="M6" t="n">
-        <v>352418.7419377769</v>
+        <v>352368.4123883754</v>
       </c>
       <c r="N6" t="n">
-        <v>512777.1924384595</v>
+        <v>512726.8628890582</v>
       </c>
       <c r="O6" t="n">
-        <v>492966.7510882503</v>
+        <v>492786.1704956011</v>
       </c>
       <c r="P6" t="n">
-        <v>492966.7510882505</v>
+        <v>492786.1704956008</v>
       </c>
     </row>
   </sheetData>
@@ -26697,25 +26697,25 @@
         <v>29.49894172633797</v>
       </c>
       <c r="F2" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H2" t="n">
+        <v>29.49894172633797</v>
+      </c>
+      <c r="I2" t="n">
+        <v>29.49894172633797</v>
+      </c>
+      <c r="J2" t="n">
+        <v>29.49894172633794</v>
+      </c>
+      <c r="K2" t="n">
+        <v>29.49894172633794</v>
+      </c>
+      <c r="L2" t="n">
         <v>29.49894172633805</v>
-      </c>
-      <c r="I2" t="n">
-        <v>29.49894172633805</v>
-      </c>
-      <c r="J2" t="n">
-        <v>29.49894172633813</v>
-      </c>
-      <c r="K2" t="n">
-        <v>29.49894172633808</v>
-      </c>
-      <c r="L2" t="n">
-        <v>29.49894172633812</v>
       </c>
       <c r="M2" t="n">
         <v>29.49894172633805</v>
@@ -26724,10 +26724,10 @@
         <v>29.49894172633805</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037735</v>
+        <v>427.0798340037743</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037735</v>
+        <v>427.0798340037743</v>
       </c>
       <c r="C4" t="n">
-        <v>94.98373636625206</v>
+        <v>94.98373636625126</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037735</v>
+        <v>427.0798340037743</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625206</v>
+        <v>94.98373636625126</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627594</v>
+        <v>643.4826507627595</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037735</v>
+        <v>427.0798340037743</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625206</v>
+        <v>94.98373636625126</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>380.0957634286045</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="E2" t="n">
-        <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>12.1998003210602</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27508,16 +27508,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531635</v>
+        <v>103.9543291284516</v>
       </c>
       <c r="V3" t="n">
-        <v>173.235581336987</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178.4995089619481</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
@@ -27587,7 +27587,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -27596,16 +27596,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>164.1762662001699</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27624,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>211.3899964072494</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>343.1675160536564</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>133.8657378735126</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>55.35263051300493</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27861,16 +27861,16 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>258.4252165463164</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>188.8716069873454</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -28028,7 +28028,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>189.9919292618123</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>126.9450269688244</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C20" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D20" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E20" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F20" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G20" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H20" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I20" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T20" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U20" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V20" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W20" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X20" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C23" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D23" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E23" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F23" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G23" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H23" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I23" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T23" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U23" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V23" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W23" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X23" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C26" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D26" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E26" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F26" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G26" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H26" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I26" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T26" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U26" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V26" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W26" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X26" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C28" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D28" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E28" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F28" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G28" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H28" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I28" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J28" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K28" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L28" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M28" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N28" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O28" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P28" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R28" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S28" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T28" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U28" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V28" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W28" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X28" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.49894172633813</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C29" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D29" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E29" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F29" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G29" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H29" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I29" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T29" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U29" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V29" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W29" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X29" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C31" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D31" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E31" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F31" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G31" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H31" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I31" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J31" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K31" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L31" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M31" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N31" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O31" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P31" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R31" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S31" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T31" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U31" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V31" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W31" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X31" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.49894172633808</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C32" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D32" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E32" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F32" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G32" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H32" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I32" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T32" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U32" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V32" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W32" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X32" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C34" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D34" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E34" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F34" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G34" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H34" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I34" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J34" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K34" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L34" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M34" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N34" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O34" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P34" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R34" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S34" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T34" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U34" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V34" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W34" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X34" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="35">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
     </row>
   </sheetData>
@@ -34701,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>427.0798340037735</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>427.0798340037735</v>
+        <v>85.41902576595324</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>427.0798340037743</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>427.0798340037743</v>
       </c>
       <c r="O2" t="n">
-        <v>44.45271698861409</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>427.0798340037735</v>
+        <v>427.0798340037743</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>427.0798340037743</v>
       </c>
       <c r="L3" t="n">
-        <v>409.8240831349341</v>
+        <v>427.0798340037743</v>
       </c>
       <c r="M3" t="n">
-        <v>427.0798340037735</v>
+        <v>215.063620950457</v>
       </c>
       <c r="N3" t="n">
-        <v>427.0798340037735</v>
+        <v>427.0798340037743</v>
       </c>
       <c r="O3" t="n">
-        <v>427.0798340037735</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34935,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>135.5987266329975</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
+        <v>135.5987266329976</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>522.0635703700256</v>
@@ -35017,28 +35017,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>10.70163254908682</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
         <v>460.0037840019794</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>117.7337452574859</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
         <v>522.0635703700256</v>
@@ -35269,13 +35269,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>40.55973291537975</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35427,7 +35427,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q11" t="n">
         <v>324.4050573689818</v>
@@ -35491,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>478.6370371299984</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>198.0587452094835</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35670,7 +35670,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>529.5070605161113</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,10 +35740,10 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>473.6101143363516</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533855</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K16" t="n">
         <v>185.6124040720329</v>
@@ -35813,19 +35813,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M16" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N16" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O16" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P16" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M17" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N17" t="n">
         <v>760.7889056955737</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="O18" t="n">
-        <v>392.6796306314033</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>567.3796893823536</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533851</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K19" t="n">
         <v>185.6124040720329</v>
@@ -36062,7 +36062,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="O21" t="n">
-        <v>138.425419678467</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.72373910533858</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K22" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L22" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M22" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N22" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O22" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P22" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978335</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36375,7 +36375,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P23" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q23" t="n">
         <v>324.4050573689818</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>133.5425242304483</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.72373910533858</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K25" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L25" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M25" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N25" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O25" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P25" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978335</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="O27" t="n">
-        <v>516.9120523430244</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.72373910533867</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K28" t="n">
-        <v>185.6124040720331</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L28" t="n">
-        <v>292.0212652415509</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M28" t="n">
-        <v>321.684857322796</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N28" t="n">
-        <v>313.1744794983081</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O28" t="n">
-        <v>291.6813763995444</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P28" t="n">
-        <v>237.2519116754415</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.68887081978342</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.72373910533861</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K31" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L31" t="n">
-        <v>292.0212652415508</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M31" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N31" t="n">
-        <v>313.1744794983081</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O31" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P31" t="n">
-        <v>237.2519116754415</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978338</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.72373910533865</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K34" t="n">
-        <v>185.6124040720331</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L34" t="n">
-        <v>292.0212652415508</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M34" t="n">
         <v>321.6848573227959</v>
       </c>
       <c r="N34" t="n">
-        <v>313.1744794983081</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O34" t="n">
         <v>291.6813763995443</v>
       </c>
       <c r="P34" t="n">
-        <v>237.2519116754415</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.6888708197834</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>283.8765749455204</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>56.50169247908597</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>87.49261310237</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37803,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>518.0448726000154</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>555.7482662821208</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>29.85810036629282</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>14.22479737900053</v>
+        <v>14.22479737900064</v>
       </c>
       <c r="K43" t="n">
-        <v>156.1134623456949</v>
+        <v>156.113462345695</v>
       </c>
       <c r="L43" t="n">
-        <v>262.5223235152127</v>
+        <v>262.5223235152128</v>
       </c>
       <c r="M43" t="n">
-        <v>292.1859155964578</v>
+        <v>292.185915596458</v>
       </c>
       <c r="N43" t="n">
-        <v>283.67553777197</v>
+        <v>283.6755377719701</v>
       </c>
       <c r="O43" t="n">
-        <v>262.1824346732062</v>
+        <v>262.1824346732063</v>
       </c>
       <c r="P43" t="n">
-        <v>207.7529699491034</v>
+        <v>207.7529699491035</v>
       </c>
       <c r="Q43" t="n">
-        <v>66.18992909344529</v>
+        <v>66.1899290934454</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38101,25 +38101,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>671.0641132465089</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>14.22479737900053</v>
+        <v>14.22479737900064</v>
       </c>
       <c r="K46" t="n">
-        <v>156.1134623456949</v>
+        <v>156.113462345695</v>
       </c>
       <c r="L46" t="n">
-        <v>262.5223235152127</v>
+        <v>262.5223235152128</v>
       </c>
       <c r="M46" t="n">
-        <v>292.1859155964578</v>
+        <v>292.185915596458</v>
       </c>
       <c r="N46" t="n">
-        <v>283.67553777197</v>
+        <v>283.6755377719701</v>
       </c>
       <c r="O46" t="n">
-        <v>262.1824346732062</v>
+        <v>262.1824346732063</v>
       </c>
       <c r="P46" t="n">
-        <v>207.7529699491034</v>
+        <v>207.7529699491035</v>
       </c>
       <c r="Q46" t="n">
-        <v>66.18992909344529</v>
+        <v>66.1899290934454</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
